--- a/src/main/webapp/WEB-INF/static/template/shopSku/shopSkuStorageLocationTemplate.xlsx
+++ b/src/main/webapp/WEB-INF/static/template/shopSku/shopSkuStorageLocationTemplate.xlsx
@@ -15,6 +15,30 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Microsoft:多库位逗号分割</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
@@ -30,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +77,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -382,12 +413,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -410,6 +441,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
